--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/basic-land/basic-land-common.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/basic-land/basic-land-common.xlsx
@@ -700,19 +700,94 @@
     <comment ref="D47" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="0">
+      <text>
+        <r>
+          <t>({T}: Add {G}.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D48" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="0">
+      <text>
+        <r>
+          <t>({T}: Add {U}.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D49" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E49" authorId="0">
+      <text>
+        <r>
+          <t>({T}: Add {R}.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D50" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E50" authorId="0">
+      <text>
+        <r>
+          <t>({T}: Add {W}.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D51" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E51" authorId="0">
+      <text>
+        <r>
+          <t>({T}: Add {B}.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D52" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">Border: borderless
 Finish: foil</t>
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0">
+    <comment ref="E52" authorId="0">
       <text>
         <r>
           <t>({T}: Add {B}.)</t>
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0">
+    <comment ref="D53" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -720,14 +795,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0">
+    <comment ref="E53" authorId="0">
       <text>
         <r>
           <t>({T}: Add {B}.)</t>
         </r>
       </text>
     </comment>
-    <comment ref="D49" authorId="0">
+    <comment ref="D54" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -735,14 +810,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="0">
+    <comment ref="E54" authorId="0">
       <text>
         <r>
           <t>({T}: Add {B}.)</t>
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0">
+    <comment ref="D55" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -750,14 +825,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0">
+    <comment ref="E55" authorId="0">
       <text>
         <r>
           <t>({T}: Add {B}.)</t>
         </r>
       </text>
     </comment>
-    <comment ref="D51" authorId="0">
+    <comment ref="D56" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -765,14 +840,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0">
+    <comment ref="E56" authorId="0">
       <text>
         <r>
           <t>({T}: Add {B}.)</t>
         </r>
       </text>
     </comment>
-    <comment ref="D52" authorId="0">
+    <comment ref="D57" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: white
@@ -780,14 +855,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0">
+    <comment ref="E57" authorId="0">
       <text>
         <r>
           <t>({T}: Add {B}.)</t>
         </r>
       </text>
     </comment>
-    <comment ref="D53" authorId="0">
+    <comment ref="D58" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -795,14 +870,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E53" authorId="0">
+    <comment ref="E58" authorId="0">
       <text>
         <r>
           <t>({T}: Add {B}.)</t>
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0">
+    <comment ref="D59" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -810,14 +885,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0">
+    <comment ref="E59" authorId="0">
       <text>
         <r>
           <t>({T}: Add {B}.)</t>
         </r>
       </text>
     </comment>
-    <comment ref="D55" authorId="0">
+    <comment ref="D60" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: white
@@ -825,14 +900,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0">
+    <comment ref="E60" authorId="0">
       <text>
         <r>
           <t>({T}: Add {B}.)</t>
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0">
+    <comment ref="D61" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: white
@@ -840,100 +915,25 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0">
+    <comment ref="E61" authorId="0">
       <text>
         <r>
           <t>({T}: Add {B}.)</t>
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0">
+    <comment ref="C62" authorId="0">
       <text>
         <r>
           <t>Group: proxy</t>
         </r>
       </text>
     </comment>
-    <comment ref="D57" authorId="0">
+    <comment ref="D62" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: borderless
 Finish: foil</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E57" authorId="0">
-      <text>
-        <r>
-          <t>({T}: Add {B}.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D58" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E58" authorId="0">
-      <text>
-        <r>
-          <t>({T}: Add {G}.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D59" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E59" authorId="0">
-      <text>
-        <r>
-          <t>({T}: Add {U}.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D60" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E60" authorId="0">
-      <text>
-        <r>
-          <t>({T}: Add {R}.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D61" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E61" authorId="0">
-      <text>
-        <r>
-          <t>({T}: Add {W}.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D62" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
         </r>
       </text>
     </comment>
@@ -1311,18 +1311,93 @@
     <t>0.42</t>
   </si>
   <si>
+    <t>Snow-Covered Forest</t>
+  </si>
+  <si>
+    <t>Land - Basic - Snow</t>
+  </si>
+  <si>
+    <t>Basic Snow Land — Forest</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>Open Snow-Covered Forest</t>
+  </si>
+  <si>
+    <t>Snow-Covered Island</t>
+  </si>
+  <si>
+    <t>Basic Snow Land — Island</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>Open Snow-Covered Island</t>
+  </si>
+  <si>
+    <t>Snow-Covered Mountain</t>
+  </si>
+  <si>
+    <t>Basic Snow Land — Mountain</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>Open Snow-Covered Mountain</t>
+  </si>
+  <si>
+    <t>Snow-Covered Plains</t>
+  </si>
+  <si>
+    <t>Basic Snow Land — Plains</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>Open Snow-Covered Plains</t>
+  </si>
+  <si>
+    <t>Snow-Covered Swamp</t>
+  </si>
+  <si>
+    <t>Basic Snow Land — Swamp</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>Open Snow-Covered Swamp</t>
+  </si>
+  <si>
     <t>Swamp ◇</t>
   </si>
   <si>
     <t>Basic Land — Swamp</t>
   </si>
   <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>13.40</t>
   </si>
   <si>
@@ -1369,81 +1444,6 @@
   </si>
   <si>
     <t>299</t>
-  </si>
-  <si>
-    <t>Snow-Covered Forest</t>
-  </si>
-  <si>
-    <t>Land - Basic - Snow</t>
-  </si>
-  <si>
-    <t>Basic Snow Land — Forest</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>Open Snow-Covered Forest</t>
-  </si>
-  <si>
-    <t>Snow-Covered Island</t>
-  </si>
-  <si>
-    <t>Basic Snow Land — Island</t>
-  </si>
-  <si>
-    <t>371</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>Open Snow-Covered Island</t>
-  </si>
-  <si>
-    <t>Snow-Covered Mountain</t>
-  </si>
-  <si>
-    <t>Basic Snow Land — Mountain</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>1.89</t>
-  </si>
-  <si>
-    <t>Open Snow-Covered Mountain</t>
-  </si>
-  <si>
-    <t>Snow-Covered Plains</t>
-  </si>
-  <si>
-    <t>Basic Snow Land — Plains</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>Open Snow-Covered Plains</t>
-  </si>
-  <si>
-    <t>Snow-Covered Swamp</t>
-  </si>
-  <si>
-    <t>Basic Snow Land — Swamp</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>Open Snow-Covered Swamp</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1547,24 +1547,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,18 +1580,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3972,25 +3947,25 @@
         <v>120</v>
       </c>
       <c r="B47" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>22</v>
@@ -4002,7 +3977,7 @@
         <v>22</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>124</v>
@@ -4016,25 +3991,25 @@
         <v>126</v>
       </c>
       <c r="B48" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>22</v>
@@ -4046,39 +4021,39 @@
         <v>22</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B49" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>22</v>
@@ -4090,39 +4065,39 @@
         <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B50" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>22</v>
@@ -4134,30 +4109,30 @@
         <v>22</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B51" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>31</v>
@@ -4166,7 +4141,7 @@
         <v>32</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>22</v>
@@ -4178,21 +4153,21 @@
         <v>22</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B52" s="9">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>16</v>
@@ -4201,16 +4176,16 @@
         <v>17</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>22</v>
@@ -4222,21 +4197,21 @@
         <v>22</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B53" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>16</v>
@@ -4245,16 +4220,16 @@
         <v>17</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>22</v>
@@ -4266,21 +4241,21 @@
         <v>22</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B54" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>16</v>
@@ -4289,7 +4264,7 @@
         <v>17</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>27</v>
@@ -4298,7 +4273,7 @@
         <v>28</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>22</v>
@@ -4310,21 +4285,21 @@
         <v>22</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B55" s="7">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>16</v>
@@ -4333,16 +4308,16 @@
         <v>17</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>22</v>
@@ -4354,21 +4329,21 @@
         <v>22</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B56" s="9">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>16</v>
@@ -4377,16 +4352,16 @@
         <v>17</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>22</v>
@@ -4398,127 +4373,127 @@
         <v>22</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="11">
+      <c r="A57" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="7">
+        <v>42</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="9">
         <v>2</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="11" t="s">
+      <c r="C58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" s="11">
+      <c r="E58" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="9">
         <v>0</v>
       </c>
-      <c r="K57" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N57" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B58" s="13">
-        <v>2</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="13">
-        <v>0</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M58" s="13" t="s">
+      <c r="K58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="N58" s="13" t="s">
-        <v>145</v>
+      <c r="M58" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B59" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>22</v>
@@ -4530,10 +4505,10 @@
         <v>22</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="N59" s="7" t="s">
         <v>150</v>
@@ -4544,25 +4519,25 @@
         <v>151</v>
       </c>
       <c r="B60" s="9">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>22</v>
@@ -4574,39 +4549,39 @@
         <v>22</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B61" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>22</v>
@@ -4618,57 +4593,57 @@
         <v>22</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B62" s="15">
-        <v>4</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J62" s="15">
+      <c r="A62" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="11">
         <v>0</v>
       </c>
-      <c r="K62" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L62" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="M62" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="N62" s="15" t="s">
-        <v>164</v>
+      <c r="K62" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
